--- a/Database Material/Spreadsheets/Education.xlsx
+++ b/Database Material/Spreadsheets/Education.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/personal website/personal-website/personal-website/Database Material/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79883005-6003-0C40-B984-099BFD2D13DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BB1776-4BB8-F642-9F64-2F336F21D236}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1020" windowWidth="16820" windowHeight="10000" xr2:uid="{945A876B-8282-264E-AD87-E2E396BAA8EC}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>institution FK</t>
   </si>
   <si>
     <t>SubjectFk</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>gradeFK</t>
@@ -63,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,16 +61,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,15 +378,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,24 +886,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAA165B-8A67-AA4F-94B3-826DF1FA5970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -447,6 +925,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -473,6 +954,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -499,6 +983,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -525,6 +1012,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -551,6 +1041,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>
@@ -577,6 +1070,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
@@ -603,6 +1099,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -629,6 +1128,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -655,6 +1157,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -681,6 +1186,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -707,6 +1215,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -730,6 +1241,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
@@ -753,6 +1267,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -776,6 +1293,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15">
         <v>0</v>
       </c>
@@ -799,6 +1319,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Database Material/Spreadsheets/Education.xlsx
+++ b/Database Material/Spreadsheets/Education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/personal website/personal-website/personal-website/Database Material/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BB1776-4BB8-F642-9F64-2F336F21D236}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829AE6EA-6EE8-D845-92A5-2C4D914307AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -17,38 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>institution FK</t>
-  </si>
-  <si>
-    <t>SubjectFk</t>
-  </si>
-  <si>
-    <t>gradeFK</t>
-  </si>
-  <si>
-    <t>subjectLevelFK</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>subjectAbbreviation</t>
-  </si>
-  <si>
-    <t>Endorsement</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,52 +855,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -947,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -955,13 +921,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -970,27 +936,27 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -999,27 +965,27 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1034,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1042,28 +1008,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1071,13 +1037,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -1086,27 +1052,27 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8">
         <v>11</v>
@@ -1115,27 +1081,27 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -1144,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -1158,13 +1124,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -1173,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1187,28 +1153,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
         <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -1216,13 +1179,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1234,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1242,16 +1205,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1260,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -1268,16 +1231,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1286,35 +1249,9 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15">
         <v>3</v>
       </c>
     </row>

--- a/Database Material/Spreadsheets/Education.xlsx
+++ b/Database Material/Spreadsheets/Education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/personal website/personal-website/personal-website/Database Material/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829AE6EA-6EE8-D845-92A5-2C4D914307AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B81AA2D-4DE4-0C4D-A2DD-2FF9991C5428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -17,6 +17,10 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
